--- a/tables/SWIP_Module_GOF.xlsx
+++ b/tables/SWIP_Module_GOF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -47,154 +47,121 @@
     <t xml:space="preserve">Quality</t>
   </si>
   <si>
+    <t xml:space="preserve">M28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
     <t xml:space="preserve">M26</t>
   </si>
   <si>
+    <t xml:space="preserve">M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M18</t>
+  </si>
+  <si>
     <t xml:space="preserve">M39</t>
   </si>
   <si>
-    <t xml:space="preserve">M27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49</t>
-  </si>
-  <si>
     <t xml:space="preserve">M45</t>
   </si>
   <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
+    <t xml:space="preserve">M14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
   </si>
   <si>
     <t xml:space="preserve">M24</t>
   </si>
   <si>
-    <t xml:space="preserve">M20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
+    <t xml:space="preserve">M42</t>
   </si>
   <si>
     <t xml:space="preserve">M43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M42</t>
   </si>
 </sst>
 </file>
@@ -566,34 +533,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00408326629188008</v>
+        <v>0.146931737581173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.027365357052686</v>
+        <v>0.00668260385566204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00121664295228157</v>
+        <v>0.0011227268310027</v>
       </c>
       <c r="E2" t="n">
-        <v>0.821972010132042</v>
+        <v>0.760988642665642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.14536272357111</v>
+        <v>0.0842742890665195</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0179162429854484</v>
+        <v>0.132900993540212</v>
       </c>
       <c r="H2" t="n">
-        <v>0.852606219372305</v>
+        <v>0.913906720347673</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K2" t="n">
-        <v>0.182222422993487</v>
+        <v>0.245594032342392</v>
       </c>
     </row>
     <row r="3">
@@ -601,34 +568,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0606941029776857</v>
+        <v>0.174393712769946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0185318666078077</v>
+        <v>0.00648446496072072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00107153129945417</v>
+        <v>0.0000775689413141567</v>
       </c>
       <c r="E3" t="n">
-        <v>0.850541166859666</v>
+        <v>0.731138621315873</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0691613322553864</v>
+        <v>0.0879056320121458</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0626548356835291</v>
+        <v>0.157415307024768</v>
       </c>
       <c r="H3" t="n">
-        <v>0.929396179119016</v>
+        <v>0.909728996189302</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="K3" t="n">
-        <v>0.198634281373924</v>
+        <v>0.244471353080685</v>
       </c>
     </row>
     <row r="4">
@@ -636,34 +603,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.146931737581173</v>
+        <v>0.03929766274202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00668260385566204</v>
+        <v>0.00388324583268521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0011227268310027</v>
+        <v>0.000252906057773992</v>
       </c>
       <c r="E4" t="n">
-        <v>0.760988642665642</v>
+        <v>0.906927651902802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0842742890665195</v>
+        <v>0.0496385334647185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.132900993540212</v>
+        <v>0.0361712663433715</v>
       </c>
       <c r="H4" t="n">
-        <v>0.913906720347673</v>
+        <v>0.950083138523263</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="K4" t="n">
-        <v>0.195323812081019</v>
+        <v>0.255315716424185</v>
       </c>
     </row>
     <row r="5">
@@ -671,34 +638,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.174393712769946</v>
+        <v>0.375348621639207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00648446496072072</v>
+        <v>0.00301807474227178</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000775689413141567</v>
+        <v>0.000154434797082893</v>
       </c>
       <c r="E5" t="n">
-        <v>0.731138621315873</v>
+        <v>0.56633310508132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0879056320121458</v>
+        <v>0.0551457637401184</v>
       </c>
       <c r="G5" t="n">
-        <v>0.157415307024768</v>
+        <v>0.342256006357771</v>
       </c>
       <c r="H5" t="n">
-        <v>0.909728996189302</v>
+        <v>0.941898267371518</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="K5" t="n">
-        <v>0.194430932107311</v>
+        <v>0.253116197079809</v>
       </c>
     </row>
     <row r="6">
@@ -706,34 +673,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03929766274202</v>
+        <v>0.269478677606356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00388324583268521</v>
+        <v>0.00154118322258123</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000252906057773992</v>
+        <v>0.000464352094614287</v>
       </c>
       <c r="E6" t="n">
-        <v>0.906927651902802</v>
+        <v>0.663850830260193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0496385334647185</v>
+        <v>0.064664956816256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0361712663433715</v>
+        <v>0.241751167937475</v>
       </c>
       <c r="H6" t="n">
-        <v>0.950083138523263</v>
+        <v>0.933221922919793</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="K6" t="n">
-        <v>0.203055581361373</v>
+        <v>0.250784604180394</v>
       </c>
     </row>
     <row r="7">
@@ -741,34 +708,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.375348621639207</v>
+        <v>0.581734115453559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00301807474227178</v>
+        <v>0.00130699483240149</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000154434797082893</v>
+        <v>0.000669438252884487</v>
       </c>
       <c r="E7" t="n">
-        <v>0.56633310508132</v>
+        <v>0.314970183032646</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0551457637401184</v>
+        <v>0.101319268428509</v>
       </c>
       <c r="G7" t="n">
-        <v>0.342256006357771</v>
+        <v>0.545499084201293</v>
       </c>
       <c r="H7" t="n">
-        <v>0.941898267371518</v>
+        <v>0.889731227681821</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="K7" t="n">
-        <v>0.201306277850242</v>
+        <v>0.239097355388959</v>
       </c>
     </row>
     <row r="8">
@@ -776,34 +743,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.269478677606356</v>
+        <v>0.106686477230239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00154118322258123</v>
+        <v>0.00124733247083963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000464352094614287</v>
+        <v>0.000159097541640554</v>
       </c>
       <c r="E8" t="n">
-        <v>0.663850830260193</v>
+        <v>0.858250034836457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.064664956816256</v>
+        <v>0.0336570579208236</v>
       </c>
       <c r="G8" t="n">
-        <v>0.241751167937475</v>
+        <v>0.0936925259204536</v>
       </c>
       <c r="H8" t="n">
-        <v>0.933221922919793</v>
+        <v>0.965848863957388</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="K8" t="n">
-        <v>0.199451934692995</v>
+        <v>0.25955243773935</v>
       </c>
     </row>
     <row r="9">
@@ -811,34 +778,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.167348042593147</v>
+        <v>0.24200266544108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00152911158236584</v>
+        <v>0.00121847885013123</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.0000901681573204028</v>
       </c>
       <c r="E9" t="n">
-        <v>0.785846857066635</v>
+        <v>0.654455496334343</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0452759887578525</v>
+        <v>0.102233191217125</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150154374447762</v>
+        <v>0.215843587227959</v>
       </c>
       <c r="H9" t="n">
-        <v>0.952944386686256</v>
+        <v>0.894039383207562</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="K9" t="n">
-        <v>0.203667098801898</v>
+        <v>0.240255085454804</v>
       </c>
     </row>
     <row r="10">
@@ -846,34 +813,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.110803670334683</v>
+        <v>0.332847480881487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00152685171774696</v>
+        <v>0.00100930916520194</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000513684532475255</v>
+        <v>0.000455321548144879</v>
       </c>
       <c r="E10" t="n">
-        <v>0.832475602974434</v>
+        <v>0.605395463708839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0546801904406607</v>
+        <v>0.0602924246963275</v>
       </c>
       <c r="G10" t="n">
-        <v>0.099899936955724</v>
+        <v>0.300429416055861</v>
       </c>
       <c r="H10" t="n">
-        <v>0.944153438664975</v>
+        <v>0.936841279813458</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.201788262109824</v>
+        <v>0.251757233480749</v>
       </c>
     </row>
     <row r="11">
@@ -881,34 +848,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0118057033472314</v>
+        <v>0.101714580195196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00148575477071087</v>
+        <v>0.00100052103126412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000348722434993529</v>
+        <v>0.000309417173473167</v>
       </c>
       <c r="E11" t="n">
-        <v>0.961557445405599</v>
+        <v>0.834173905507111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0248023740414656</v>
+        <v>0.0628015760929555</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0119842203401924</v>
+        <v>0.08921325988665</v>
       </c>
       <c r="H11" t="n">
-        <v>0.975506053656717</v>
+        <v>0.936222618178284</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="K11" t="n">
-        <v>0.208489068814217</v>
+        <v>0.251590980621179</v>
       </c>
     </row>
     <row r="12">
@@ -916,34 +883,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581734115453559</v>
+        <v>0.066387660605966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00130699483240149</v>
+        <v>0.000996283988357815</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000669438252884487</v>
+        <v>0.000941814399862338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.314970183032646</v>
+        <v>0.829706633042665</v>
       </c>
       <c r="F12" t="n">
-        <v>0.101319268428509</v>
+        <v>0.101967607963149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.545499084201293</v>
+        <v>0.0583565325056166</v>
       </c>
       <c r="H12" t="n">
-        <v>0.889731227681821</v>
+        <v>0.896808183361082</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="K12" t="n">
-        <v>0.190156928764268</v>
+        <v>0.240999144754636</v>
       </c>
     </row>
     <row r="13">
@@ -951,34 +918,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.106686477230239</v>
+        <v>0.259897989847071</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00124733247083963</v>
+        <v>0.000741437244683744</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000159097541640554</v>
+        <v>0.000239933671646635</v>
       </c>
       <c r="E13" t="n">
-        <v>0.858250034836457</v>
+        <v>0.680868996625064</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0336570579208236</v>
+        <v>0.0582516426115343</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0936925259204536</v>
+        <v>0.232239656231313</v>
       </c>
       <c r="H13" t="n">
-        <v>0.965848863957388</v>
+        <v>0.939906611463185</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="K13" t="n">
-        <v>0.206425095474197</v>
+        <v>0.25258097965042</v>
       </c>
     </row>
     <row r="14">
@@ -986,34 +953,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0.24200266544108</v>
+        <v>0.10579455941772</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00121847885013123</v>
+        <v>0.00047168214976854</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0000901681573204028</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.654455496334343</v>
+        <v>0.803889489357269</v>
       </c>
       <c r="F14" t="n">
-        <v>0.102233191217125</v>
+        <v>0.089844269075242</v>
       </c>
       <c r="G14" t="n">
-        <v>0.215843587227959</v>
+        <v>0.0926811721387854</v>
       </c>
       <c r="H14" t="n">
-        <v>0.894039383207562</v>
+        <v>0.908725936409637</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="K14" t="n">
-        <v>0.191077685053275</v>
+        <v>0.244201800958479</v>
       </c>
     </row>
     <row r="15">
@@ -1021,34 +988,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.332847480881487</v>
+        <v>0.0381814738012222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00100930916520194</v>
+        <v>0.00041544229923051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000455321548144879</v>
+        <v>0.000191494749015821</v>
       </c>
       <c r="E15" t="n">
-        <v>0.605395463708839</v>
+        <v>0.939018574809184</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0602924246963275</v>
+        <v>0.0221930143413472</v>
       </c>
       <c r="G15" t="n">
-        <v>0.300429416055861</v>
+        <v>0.033312006128574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.936841279813458</v>
+        <v>0.97776373553935</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="K15" t="n">
-        <v>0.200225478173979</v>
+        <v>0.262754319607056</v>
       </c>
     </row>
     <row r="16">
@@ -1056,34 +1023,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101714580195196</v>
+        <v>0.136458247777605</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00100052103126412</v>
+        <v>0.000341666520069566</v>
       </c>
       <c r="D16" t="n">
-        <v>0.000309417173473167</v>
+        <v>0.000344066974440894</v>
       </c>
       <c r="E16" t="n">
-        <v>0.834173905507111</v>
+        <v>0.806820789748537</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0628015760929555</v>
+        <v>0.0560352289793476</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08921325988665</v>
+        <v>0.119976007584889</v>
       </c>
       <c r="H16" t="n">
-        <v>0.936222618178284</v>
+        <v>0.943113584130635</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K16" t="n">
-        <v>0.200093255326416</v>
+        <v>0.25344278899209</v>
       </c>
     </row>
     <row r="17">
@@ -1091,34 +1058,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.066387660605966</v>
+        <v>0.505924499946969</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000996283988357815</v>
+        <v>0.000309548028203725</v>
       </c>
       <c r="D17" t="n">
-        <v>0.000941814399862338</v>
+        <v>0.000616412177582766</v>
       </c>
       <c r="E17" t="n">
-        <v>0.829706633042665</v>
+        <v>0.39763379171357</v>
       </c>
       <c r="F17" t="n">
-        <v>0.101967607963149</v>
+        <v>0.0955157481336746</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0583565325056166</v>
+        <v>0.468454158599254</v>
       </c>
       <c r="H17" t="n">
-        <v>0.896808183361082</v>
+        <v>0.897649533065768</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44</v>
+        <v>547</v>
       </c>
       <c r="K17" t="n">
-        <v>0.191669444134191</v>
+        <v>0.241225240549735</v>
       </c>
     </row>
     <row r="18">
@@ -1126,34 +1093,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00437069533442305</v>
+        <v>0.0409210451539152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00084076558530045</v>
+        <v>0.000307431949184406</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00248100510991789</v>
+        <v>0.00181636408345659</v>
       </c>
       <c r="E18" t="n">
-        <v>0.88073602107861</v>
+        <v>0.92933392928638</v>
       </c>
       <c r="F18" t="n">
-        <v>0.111571512891749</v>
+        <v>0.0276212295270635</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00820777788958423</v>
+        <v>0.0356532368747861</v>
       </c>
       <c r="H18" t="n">
-        <v>0.886963520013654</v>
+        <v>0.972313963432511</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="K18" t="n">
-        <v>0.189565403173706</v>
+        <v>0.261289803068042</v>
       </c>
     </row>
     <row r="19">
@@ -1161,34 +1128,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0559423717975168</v>
+        <v>0.0693309179968706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000749102862719738</v>
+        <v>0.000297739828936718</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000629968693694378</v>
+        <v>0.0000897726821874548</v>
       </c>
       <c r="E19" t="n">
-        <v>0.829304256821727</v>
+        <v>0.882470722124575</v>
       </c>
       <c r="F19" t="n">
-        <v>0.113374299824343</v>
+        <v>0.0478108473674302</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0501219892121904</v>
+        <v>0.0605221736776808</v>
       </c>
       <c r="H19" t="n">
-        <v>0.886577085308415</v>
+        <v>0.951701192198895</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K19" t="n">
-        <v>0.189482812797613</v>
+        <v>0.255750535774888</v>
       </c>
     </row>
     <row r="20">
@@ -1196,34 +1163,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00483738023086347</v>
+        <v>0.329078903248346</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000741718705309443</v>
+        <v>0.000245982581089759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00272891429413937</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.958572335313517</v>
+        <v>0.621681760913244</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0331196514561704</v>
+        <v>0.0489933532573204</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00551782442868945</v>
+        <v>0.296340998022923</v>
       </c>
       <c r="H20" t="n">
-        <v>0.966585104151622</v>
+        <v>0.948537622525755</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="K20" t="n">
-        <v>0.206582447683283</v>
+        <v>0.254900390114151</v>
       </c>
     </row>
     <row r="21">
@@ -1231,34 +1198,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.259897989847071</v>
+        <v>0.323107160261085</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000741437244683744</v>
+        <v>0.000200153936518652</v>
       </c>
       <c r="D21" t="n">
-        <v>0.000239933671646635</v>
+        <v>0.000246707267118736</v>
       </c>
       <c r="E21" t="n">
-        <v>0.680868996625064</v>
+        <v>0.628300343517441</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0582516426115343</v>
+        <v>0.048145635017837</v>
       </c>
       <c r="G21" t="n">
-        <v>0.232239656231313</v>
+        <v>0.290529585436044</v>
       </c>
       <c r="H21" t="n">
-        <v>0.939906611463185</v>
+        <v>0.949633592442012</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="K21" t="n">
-        <v>0.200880613156342</v>
+        <v>0.255194909965101</v>
       </c>
     </row>
     <row r="22">
@@ -1266,34 +1233,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0109694043239966</v>
+        <v>0.131916402026994</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000479703238434341</v>
+        <v>0.00018986105507448</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00000000000518888547777135</v>
+        <v>0.000017374163532669</v>
       </c>
       <c r="E22" t="n">
-        <v>0.96574141470394</v>
+        <v>0.77702996814159</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02280947772844</v>
+        <v>0.0908463946128086</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0113155769618044</v>
+        <v>0.115469436594142</v>
       </c>
       <c r="H22" t="n">
-        <v>0.977348113209068</v>
+        <v>0.907392452977157</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>257</v>
       </c>
       <c r="K22" t="n">
-        <v>0.208882761174536</v>
+        <v>0.243843454131661</v>
       </c>
     </row>
     <row r="23">
@@ -1301,34 +1268,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>0.10579455941772</v>
+        <v>0.0706515247534938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00047168214976854</v>
+        <v>0.000089807674565942</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.0000196916115720306</v>
       </c>
       <c r="E23" t="n">
-        <v>0.803889489357269</v>
+        <v>0.89044693977049</v>
       </c>
       <c r="F23" t="n">
-        <v>0.089844269075242</v>
+        <v>0.0387920361898787</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0926811721387854</v>
+        <v>0.0613901171345873</v>
       </c>
       <c r="H23" t="n">
-        <v>0.908725936409637</v>
+        <v>0.96087067999214</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="K23" t="n">
-        <v>0.194216554145592</v>
+        <v>0.258214651019386</v>
       </c>
     </row>
     <row r="24">
@@ -1336,34 +1303,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0381814738012222</v>
+        <v>0.5139231836618</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00041544229923051</v>
+        <v>0.0000894488271023343</v>
       </c>
       <c r="D24" t="n">
-        <v>0.000191494749015821</v>
+        <v>0.000149427221414452</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939018574809184</v>
+        <v>0.444760021859692</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0221930143413472</v>
+        <v>0.0410779184299919</v>
       </c>
       <c r="G24" t="n">
-        <v>0.033312006128574</v>
+        <v>0.475574147746811</v>
       </c>
       <c r="H24" t="n">
-        <v>0.97776373553935</v>
+        <v>0.955691923399735</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="K24" t="n">
-        <v>0.208971589646993</v>
+        <v>0.256822964443797</v>
       </c>
     </row>
     <row r="25">
@@ -1371,34 +1338,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>0.136458247777605</v>
+        <v>0.355190319963943</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000341666520069566</v>
+        <v>0.0000698046637454885</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000344066974440894</v>
+        <v>0.0000337702757353823</v>
       </c>
       <c r="E25" t="n">
-        <v>0.806820789748537</v>
+        <v>0.601162276951602</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0560352289793476</v>
+        <v>0.0435438281449738</v>
       </c>
       <c r="G25" t="n">
-        <v>0.119976007584889</v>
+        <v>0.320855906787169</v>
       </c>
       <c r="H25" t="n">
-        <v>0.943113584130635</v>
+        <v>0.954120555930777</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="K25" t="n">
-        <v>0.201566020225466</v>
+        <v>0.256400691071251</v>
       </c>
     </row>
     <row r="26">
@@ -1406,34 +1373,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0428374605186276</v>
+        <v>0.0944297545509614</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000314572401939313</v>
+        <v>0.000053919094345637</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.00000471113067183335</v>
       </c>
       <c r="E26" t="n">
-        <v>0.916793980474455</v>
+        <v>0.837305575944069</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0400539866049782</v>
+        <v>0.0682060392799526</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0379422702962934</v>
+        <v>0.0826330332318105</v>
       </c>
       <c r="H26" t="n">
-        <v>0.959423718079092</v>
+        <v>0.930891661582205</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="K26" t="n">
-        <v>0.205051887510864</v>
+        <v>0.250158393358689</v>
       </c>
     </row>
     <row r="27">
@@ -1441,34 +1408,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>0.505924499946969</v>
+        <v>0.195267766642935</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000309548028203725</v>
+        <v>0.0000489333770732809</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000616412177582766</v>
+        <v>0.000614655942997434</v>
       </c>
       <c r="E27" t="n">
-        <v>0.39763379171357</v>
+        <v>0.759087919824984</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0955157481336746</v>
+        <v>0.0449807242120101</v>
       </c>
       <c r="G27" t="n">
-        <v>0.468454158599254</v>
+        <v>0.172861585623474</v>
       </c>
       <c r="H27" t="n">
-        <v>0.897649533065768</v>
+        <v>0.953322411608044</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>547</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>0.19184926076969</v>
+        <v>0.256186205852742</v>
       </c>
     </row>
     <row r="28">
@@ -1476,34 +1443,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0409210451539152</v>
+        <v>0.133623155012476</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000307431949184406</v>
+        <v>0.0000443935132487815</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00181636408345659</v>
+        <v>0.000325445898174396</v>
       </c>
       <c r="E28" t="n">
-        <v>0.92933392928638</v>
+        <v>0.794547959866886</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0276212295270635</v>
+        <v>0.071459045709214</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0356532368747861</v>
+        <v>0.116890919313075</v>
       </c>
       <c r="H28" t="n">
-        <v>0.972313963432511</v>
+        <v>0.927183122612006</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="K28" t="n">
-        <v>0.207806842480591</v>
+        <v>0.249161798170678</v>
       </c>
     </row>
     <row r="29">
@@ -1511,34 +1478,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0693309179968706</v>
+        <v>0.0827428482101785</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000297739828936718</v>
+        <v>0.0000106643491435837</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0000897726821874548</v>
+        <v>0.00000346849056538289</v>
       </c>
       <c r="E29" t="n">
-        <v>0.882470722124575</v>
+        <v>0.86262953111109</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0478108473674302</v>
+        <v>0.0546134878390228</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0605221736776808</v>
+        <v>0.0719937462659105</v>
       </c>
       <c r="H29" t="n">
-        <v>0.951701192198895</v>
+        <v>0.944880063352979</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="K29" t="n">
-        <v>0.203401398286711</v>
+        <v>0.253917494720372</v>
       </c>
     </row>
     <row r="30">
@@ -1546,34 +1513,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>0.329078903248346</v>
+        <v>0.31443287839833</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000245982581089759</v>
+        <v>0.00000741696694105991</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.000293427395559479</v>
       </c>
       <c r="E30" t="n">
-        <v>0.621681760913244</v>
+        <v>0.635997692687044</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0489933532573204</v>
+        <v>0.0492685845521253</v>
       </c>
       <c r="G30" t="n">
-        <v>0.296340998022923</v>
+        <v>0.282334532118044</v>
       </c>
       <c r="H30" t="n">
-        <v>0.948537622525755</v>
+        <v>0.948451072371438</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="K30" t="n">
-        <v>0.202725267479722</v>
+        <v>0.254877131502604</v>
       </c>
     </row>
     <row r="31">
@@ -1581,34 +1548,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>0.323107160261085</v>
+        <v>0.294523949363316</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000200153936518652</v>
+        <v>0.00000518330082485061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000246707267118736</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.628300343517441</v>
+        <v>0.66808096972114</v>
       </c>
       <c r="F31" t="n">
-        <v>0.048145635017837</v>
+        <v>0.0373898976147187</v>
       </c>
       <c r="G31" t="n">
-        <v>0.290529585436044</v>
+        <v>0.263740022030317</v>
       </c>
       <c r="H31" t="n">
-        <v>0.949633592442012</v>
+        <v>0.960950556417323</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="K31" t="n">
-        <v>0.202959502568712</v>
+        <v>0.258236116200583</v>
       </c>
     </row>
     <row r="32">
@@ -1616,34 +1583,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>0.131916402026994</v>
+        <v>0.383677232448925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00018986105507448</v>
+        <v>0.00000353720299938553</v>
       </c>
       <c r="D32" t="n">
-        <v>0.000017374163532669</v>
+        <v>0.0000753978297546326</v>
       </c>
       <c r="E32" t="n">
-        <v>0.77702996814159</v>
+        <v>0.533023027011452</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0908463946128086</v>
+        <v>0.0832208055068683</v>
       </c>
       <c r="G32" t="n">
-        <v>0.115469436594142</v>
+        <v>0.34796270838072</v>
       </c>
       <c r="H32" t="n">
-        <v>0.907392452977157</v>
+        <v>0.911954395707545</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="K32" t="n">
-        <v>0.193931556714695</v>
+        <v>0.245069384399517</v>
       </c>
     </row>
     <row r="33">
@@ -1651,34 +1618,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0153892679013168</v>
+        <v>0.241737306173809</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0000970538335181846</v>
+        <v>0.0000000000976587576678083</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0000822081750735348</v>
+        <v>0.000127262418120782</v>
       </c>
       <c r="E33" t="n">
-        <v>0.96107101822083</v>
+        <v>0.666288221534923</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0233604518692617</v>
+        <v>0.0918472097754889</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0136562873617764</v>
+        <v>0.214733232784824</v>
       </c>
       <c r="H33" t="n">
-        <v>0.976468629885444</v>
+        <v>0.904857843909608</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="K33" t="n">
-        <v>0.208694794468955</v>
+        <v>0.243162328971454</v>
       </c>
     </row>
     <row r="34">
@@ -1686,34 +1653,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0706515247534938</v>
+        <v>0.179765192876751</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000089807674565942</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0000196916115720306</v>
+        <v>0.0000666313042235584</v>
       </c>
       <c r="E34" t="n">
-        <v>0.89044693977049</v>
+        <v>0.765914190071976</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0387920361898787</v>
+        <v>0.0542539857470498</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0613901171345873</v>
+        <v>0.158404393082744</v>
       </c>
       <c r="H34" t="n">
-        <v>0.96087067999214</v>
+        <v>0.944541800179243</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>112</v>
+        <v>465</v>
       </c>
       <c r="K34" t="n">
-        <v>0.205361138018054</v>
+        <v>0.253826593302338</v>
       </c>
     </row>
     <row r="35">
@@ -1721,34 +1688,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5139231836618</v>
+        <v>0.15722826918531</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0000894488271023343</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000149427221414452</v>
+        <v>0.000622868982569168</v>
       </c>
       <c r="E35" t="n">
-        <v>0.444760021859692</v>
+        <v>0.778423499528063</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0410779184299919</v>
+        <v>0.0637253623040577</v>
       </c>
       <c r="G35" t="n">
-        <v>0.475574147746811</v>
+        <v>0.138178612347174</v>
       </c>
       <c r="H35" t="n">
-        <v>0.955691923399735</v>
+        <v>0.935077356491852</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K35" t="n">
-        <v>0.204254313375072</v>
+        <v>0.251283214599335</v>
       </c>
     </row>
     <row r="36">
@@ -1756,34 +1723,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>0.355190319963943</v>
+        <v>0.286616302413709</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0000698046637454885</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0000337702757353823</v>
+        <v>0.000107356765198658</v>
       </c>
       <c r="E36" t="n">
-        <v>0.601162276951602</v>
+        <v>0.663721832768543</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0435438281449738</v>
+        <v>0.0495545080525485</v>
       </c>
       <c r="G36" t="n">
-        <v>0.320855906787169</v>
+        <v>0.256255860278382</v>
       </c>
       <c r="H36" t="n">
-        <v>0.954120555930777</v>
+        <v>0.948352034406069</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K36" t="n">
-        <v>0.203918474413191</v>
+        <v>0.254850517043241</v>
       </c>
     </row>
     <row r="37">
@@ -1791,34 +1758,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0944297545509614</v>
+        <v>0.141925980608506</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000053919094345637</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00000471113067183335</v>
+        <v>0.00122516354597689</v>
       </c>
       <c r="E37" t="n">
-        <v>0.837305575944069</v>
+        <v>0.790619622509692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0682060392799526</v>
+        <v>0.0662292333358255</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0826330332318105</v>
+        <v>0.124417125474229</v>
       </c>
       <c r="H37" t="n">
-        <v>0.930891661582205</v>
+        <v>0.932666809220337</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="K37" t="n">
-        <v>0.19895390188782</v>
+        <v>0.250635428549202</v>
       </c>
     </row>
     <row r="38">
@@ -1826,34 +1793,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>0.195267766642935</v>
+        <v>0.0708185429827446</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0000489333770732809</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.000614655942997434</v>
+        <v>0.000815032987969602</v>
       </c>
       <c r="E38" t="n">
-        <v>0.759087919824984</v>
+        <v>0.874985477087093</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0449807242120101</v>
+        <v>0.0533809469421929</v>
       </c>
       <c r="G38" t="n">
-        <v>0.172861585623474</v>
+        <v>0.0615624292264794</v>
       </c>
       <c r="H38" t="n">
-        <v>0.953322411608044</v>
+        <v>0.946189488601147</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="K38" t="n">
-        <v>0.203747891805321</v>
+        <v>0.254269376394496</v>
       </c>
     </row>
     <row r="39">
@@ -1861,34 +1828,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>0.133623155012476</v>
+        <v>0.27364747288111</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0000443935132487815</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000325445898174396</v>
+        <v>0.0000442558545654631</v>
       </c>
       <c r="E39" t="n">
-        <v>0.794547959866886</v>
+        <v>0.684970729672865</v>
       </c>
       <c r="F39" t="n">
-        <v>0.071459045709214</v>
+        <v>0.04133754159146</v>
       </c>
       <c r="G39" t="n">
-        <v>0.116890919313075</v>
+        <v>0.24470886017952</v>
       </c>
       <c r="H39" t="n">
-        <v>0.927183122612006</v>
+        <v>0.956947931297533</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="K39" t="n">
-        <v>0.198161298055522</v>
+        <v>0.257160491280405</v>
       </c>
     </row>
     <row r="40">
@@ -1896,419 +1863,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0827428482101785</v>
+        <v>0.0578787071085494</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0000106643491435837</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00000346849056538289</v>
+        <v>0.000188104120296074</v>
       </c>
       <c r="E40" t="n">
-        <v>0.86262953111109</v>
+        <v>0.907534411280157</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0546134878390228</v>
+        <v>0.0343987774909979</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0719937462659105</v>
+        <v>0.0502724553718055</v>
       </c>
       <c r="H40" t="n">
-        <v>0.944880063352979</v>
+        <v>0.965144531169345</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="K40" t="n">
-        <v>0.201943559254328</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.31443287839833</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.00000741696694105991</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.000293427395559479</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.635997692687044</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0492685845521253</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.282334532118044</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.948451072371438</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>187</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.202706769633387</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.294523949363316</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.00000518330082485061</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.66808096972114</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0373898976147187</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.263740022030317</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.960950556417323</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>150</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.205378209528215</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.383677232448925</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.00000353720299938553</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.0000753978297546326</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.533023027011452</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0832208055068683</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.34796270838072</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.911954395707545</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>315</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.19490655342361</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.241737306173809</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.0000000000976587576678083</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.000127262418120782</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.666288221534923</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0918472097754889</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.214733232784824</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.904857843909608</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.193389849892558</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.179765192876751</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.0000666313042235584</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.765914190071976</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.0542539857470498</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.158404393082744</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.944541800179243</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>465</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.201871264291276</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.15722826918531</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.000622868982569168</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.778423499528063</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0637253623040577</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.138178612347174</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.935077356491852</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>303</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.19984848540248</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.286616302413709</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.000107356765198658</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.663721832768543</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0495545080525485</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.256255860278382</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.948352034406069</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>191</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.202685602841956</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.141925980608506</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.00122516354597689</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.790619622509692</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0662292333358255</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.124417125474229</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.932666809220337</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>179</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.199333293565293</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.0708185429827446</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.000815032987969602</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.874985477087093</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0533809469421929</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.0615624292264794</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.946189488601147</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>130</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.202223414873521</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.27364747288111</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.0000442558545654631</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.684970729672865</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.04133754159146</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.24470886017952</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.956947931297533</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>29</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.204522752423762</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.0578787071085494</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.000188104120296074</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.907534411280157</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0343987774909979</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.0502724553718055</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.965144531169345</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>23</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.206274562644017</v>
+        <v>0.259363162482177</v>
       </c>
     </row>
   </sheetData>

--- a/tables/SWIP_Module_GOF.xlsx
+++ b/tables/SWIP_Module_GOF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -47,37 +47,142 @@
     <t xml:space="preserve">Quality</t>
   </si>
   <si>
+    <t xml:space="preserve">M27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
     <t xml:space="preserve">M9</t>
   </si>
   <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
     <t xml:space="preserve">M11</t>
   </si>
   <si>
-    <t xml:space="preserve">M12</t>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5</t>
   </si>
   <si>
     <t xml:space="preserve">M10</t>
   </si>
   <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
+    <t xml:space="preserve">M19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M48</t>
   </si>
 </sst>
 </file>
@@ -449,34 +554,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00778627962983435</v>
+        <v>0.123153957331955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.254304154842599</v>
+        <v>0.0719146502058468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0629257685838273</v>
+        <v>0.000256187552091959</v>
       </c>
       <c r="E2" t="n">
-        <v>0.27619007774409</v>
+        <v>0.255365678808135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.398793719199649</v>
+        <v>0.549309526101971</v>
       </c>
       <c r="G2" t="n">
-        <v>0.159770064469657</v>
+        <v>0.15141249759081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.54468938285948</v>
+        <v>0.42071626210376</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0761049144538065</v>
+        <v>0.535651647532585</v>
       </c>
     </row>
     <row r="3">
@@ -484,34 +589,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00534181087366007</v>
+        <v>0.262432754994064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0247457345201871</v>
+        <v>0.064658104690033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00284457445518297</v>
+        <v>0.00109782065912704</v>
       </c>
       <c r="E3" t="n">
-        <v>0.93425414804653</v>
+        <v>0.331011819881169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0328137321044394</v>
+        <v>0.340799499775607</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0184527120340966</v>
+        <v>0.277438671207983</v>
       </c>
       <c r="H3" t="n">
-        <v>0.966168143683308</v>
+        <v>0.633587744068801</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="K3" t="n">
-        <v>0.134994634073822</v>
+        <v>0.806677444009061</v>
       </c>
     </row>
     <row r="4">
@@ -519,34 +624,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0066951638508799</v>
+        <v>0.112904354493972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00130773104850846</v>
+        <v>0.0438655608959459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000202886920657667</v>
+        <v>0.0124699421639805</v>
       </c>
       <c r="E4" t="n">
-        <v>0.973412586916838</v>
+        <v>0.272763810120098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0183816312631162</v>
+        <v>0.557996332326004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00958295661770602</v>
+        <v>0.129395721963418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.984006112537061</v>
+        <v>0.424938683162584</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="K4" t="n">
-        <v>0.13748698501064</v>
+        <v>0.541027590895045</v>
       </c>
     </row>
     <row r="5">
@@ -554,34 +659,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.162752827545439</v>
+        <v>0.286989967875827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000370868093861436</v>
+        <v>0.0323525645660407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0134699295546426</v>
+        <v>0.000892991613000223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.686413701072705</v>
+        <v>0.278149364762658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.136992673733351</v>
+        <v>0.401615111182475</v>
       </c>
       <c r="G5" t="n">
-        <v>0.14493917754734</v>
+        <v>0.280134780596844</v>
       </c>
       <c r="H5" t="n">
-        <v>0.859441524442012</v>
+        <v>0.575686727933608</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>0.120082611767343</v>
+        <v>0.732958461691764</v>
       </c>
     </row>
     <row r="6">
@@ -589,34 +694,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.132779372199812</v>
+        <v>0.638534308674026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000271254110597207</v>
+        <v>0.027616448366041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000235672552652517</v>
+        <v>0.00144462556430807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.733011678026386</v>
+        <v>0.129991985896181</v>
       </c>
       <c r="F6" t="n">
-        <v>0.13391412840794</v>
+        <v>0.202412631499444</v>
       </c>
       <c r="G6" t="n">
-        <v>0.116372613191613</v>
+        <v>0.627884301705058</v>
       </c>
       <c r="H6" t="n">
-        <v>0.863528382751911</v>
+        <v>0.774719534591773</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="K6" t="n">
-        <v>0.120653634467339</v>
+        <v>0.986364998121741</v>
       </c>
     </row>
     <row r="7">
@@ -624,34 +729,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166962411759722</v>
+        <v>0.39738256873812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000205661890876573</v>
+        <v>0.0184686593091046</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000217710334772621</v>
+        <v>0.00328586205576875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.755495105218852</v>
+        <v>0.277846476374375</v>
       </c>
       <c r="F7" t="n">
-        <v>0.077119110795776</v>
+        <v>0.303016433522633</v>
       </c>
       <c r="G7" t="n">
-        <v>0.146937063971654</v>
+        <v>0.375231574695412</v>
       </c>
       <c r="H7" t="n">
-        <v>0.921243351868669</v>
+        <v>0.67619597204768</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1089</v>
+        <v>92</v>
       </c>
       <c r="K7" t="n">
-        <v>0.128717666786596</v>
+        <v>0.860925804652896</v>
       </c>
     </row>
     <row r="8">
@@ -659,34 +764,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216564638780162</v>
+        <v>0.576438611382985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0000622043098152458</v>
+        <v>0.0161401492860842</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0000674610848408979</v>
+        <v>0.00188808410741191</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6209693645233</v>
+        <v>0.0296145294964779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.162336331301882</v>
+        <v>0.375918625727041</v>
       </c>
       <c r="G8" t="n">
-        <v>0.191627443227929</v>
+        <v>0.555990940600275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.83251971639167</v>
+        <v>0.590674312971051</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2647</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>0.116321051577098</v>
+        <v>0.752040501871758</v>
       </c>
     </row>
     <row r="9">
@@ -694,34 +799,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0482630279059247</v>
+        <v>0.216608282671275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0000621687298335763</v>
+        <v>0.00883831226542126</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000552883937316167</v>
+        <v>0.0124401453287527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.903881779252058</v>
+        <v>0.163819662560187</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0472401401748673</v>
+        <v>0.598293597174364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0418128477988242</v>
+        <v>0.201984239613588</v>
       </c>
       <c r="H9" t="n">
-        <v>0.952474059294093</v>
+        <v>0.383119509415254</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>0.133081273627005</v>
+        <v>0.487783846039078</v>
       </c>
     </row>
     <row r="10">
@@ -729,34 +834,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0392570372091828</v>
+        <v>0.471392731660988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0000422922936971689</v>
+        <v>0.00786603703905587</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00257696338391353</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.913283042078975</v>
+        <v>0.253640192516264</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0448406650342314</v>
+        <v>0.267101038783692</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0343517196843323</v>
+        <v>0.440479245183615</v>
       </c>
       <c r="H10" t="n">
-        <v>0.954903226815288</v>
+        <v>0.713484712390902</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="K10" t="n">
-        <v>0.133420680988727</v>
+        <v>0.908401447974559</v>
       </c>
     </row>
     <row r="11">
@@ -764,34 +869,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226312470178911</v>
+        <v>0.298729914640455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000000000298047392142834</v>
+        <v>0.00786318581129826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000010089157753536</v>
+        <v>0.00716338125147197</v>
       </c>
       <c r="E11" t="n">
-        <v>0.680127413112938</v>
+        <v>0.435647752678038</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0935500272523494</v>
+        <v>0.250595765618736</v>
       </c>
       <c r="G11" t="n">
-        <v>0.200491611028371</v>
+        <v>0.276422135206381</v>
       </c>
       <c r="H11" t="n">
-        <v>0.903332797155156</v>
+        <v>0.73892722165638</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2393</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>0.126215174031668</v>
+        <v>0.940794590890569</v>
       </c>
     </row>
     <row r="12">
@@ -799,34 +904,1259 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0442537407812202</v>
+        <v>0.754826318490915</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.00710869346121311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000147361504829889</v>
+        <v>0.00245224963377741</v>
       </c>
       <c r="E12" t="n">
-        <v>0.920248623019024</v>
+        <v>0.0317439461658805</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0353502746949258</v>
+        <v>0.203868792248214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0383239547520027</v>
+        <v>0.733076264527982</v>
       </c>
       <c r="H12" t="n">
-        <v>0.964524945350184</v>
+        <v>0.771576864703872</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="K12" t="n">
-        <v>0.134765043645757</v>
+        <v>0.982363782921055</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.765784461493116</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.00471758506475105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.00145166204044682</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0516457543511557</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.17640053705053</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.743338873406178</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.803197011885198</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>253</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.02262223133046</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.577035278264018</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00440305300817728</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00153330239377044</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.145674265922875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.271354100411159</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.544316896084798</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.70503867970055</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>114</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.897648045424635</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.402228457868992</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.00322182546266484</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.00173203506221855</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.363606706113111</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.229210975493014</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.369964700064481</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.75789230581198</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.964940742319904</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.456339207989838</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00305952333928552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.168529755296141</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.372071513374736</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.421515046617225</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.601684466338964</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>64</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.766058516677315</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.841332204091853</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.00296457239283919</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00201672080407575</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0121551519296672</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.141531350781565</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.823318511790078</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.839469835111102</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>105</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.06880441935537</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.450263904185089</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00225093867238918</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00166487910785228</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.225500713292634</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.320319564742035</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.41508515856435</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.657754440335835</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>74</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.837446234847158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.645271081636493</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.00217149182124923</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.000430574837732664</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0362180108328556</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.315908840871669</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.612095825863763</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.652489000457301</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>101</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.830742330577289</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.630849221453653</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00175747487284659</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.000803526039982806</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.103854094822356</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.262735682811161</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.596329928191898</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.711373179663172</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>116</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.905713066073722</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.620372976941696</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.00158431355341911</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.00181650632998066</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.120788516450164</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.25543768672474</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.586630782118083</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.721151175986774</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>81</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.918162311116247</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.82876450101747</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00151469549966137</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0542318400423699</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.115488963440499</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.807577711199214</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.869203660878594</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>167</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.10666122260838</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.258811460815176</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.00127494842536133</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.00108983241732802</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.470382042956774</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.26844171538536</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.232162108392034</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.721132132150448</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>57</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.91813806469836</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.31345588510207</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00125094673998998</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00294005059896671</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.397261509422266</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.285091608136707</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.288913932242934</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.704069847962502</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.896414538751819</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.833856485596702</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.00122269494467146</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.000511637236492436</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.040851080981374</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.123558101240761</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.812929098030673</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.859943634377769</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>253</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.09487145145344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.292141494295489</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.000710518727112508</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00122843160231393</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.211139299930991</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.494780255444094</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.264836961605966</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.485727791226013</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>41</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.618423662355153</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.479471826670534</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.000700112912587653</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.202187522763377</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.317640537653501</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.441985049408994</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.658966695711959</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>219</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.838989666009538</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.770305291795748</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.000699601495398601</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.000551659445963006</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0685159234692277</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.159927523793663</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.74417507142813</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.821841665471498</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>144</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.04636041383198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.786757040331259</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.000516074574489342</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.110537895675189</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.102188989419063</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.760263700477831</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.884707089051571</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>64</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.12640002899949</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.778294229221084</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.000476399984893508</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.000930750785699049</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.073250439608034</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.147048180400289</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.75211240025097</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.835574059777528</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>547</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.0638443579938</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.78860942285889</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.000428476229139344</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.000095545305533031</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0792047269765149</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.131661828629922</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.762292087596026</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.851659376142895</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>252</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.0843240184878</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.438107968540244</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.000212916895709223</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.000365696240061281</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.274366150227685</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.286947268096301</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.401882915243062</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.694913843913406</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>231</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.884757207919897</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.553081616157485</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00019558957001533</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.00134812079740946</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.120423764873351</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.324950908601739</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.515229420773436</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.647439947421581</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>246</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.824313927825423</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.84857580056919</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.000186710620054558</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0000531366254928795</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0480067758062193</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.103177576379044</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.827896348628153</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.882571443776498</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>172</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.12368094724967</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.46752854242753</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.000185314055370985</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00689933517290841</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.185100791668094</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.340286016676096</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.431369506214614</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.636605051819108</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>40</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.810519049416666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.799240316943855</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0000882616889370668</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.000054694024854275</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0632112291544796</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.137405498187874</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.77352838929789</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.844898886805757</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>174</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.07571663251832</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.854755685063368</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0000647134559918627</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.000413442934278329</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0342239662477463</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.110542192298616</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.83426088919909</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.873533096513757</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.11217341583634</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.539919064188845</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0000369604641612234</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.00225040282080543</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.17520524933897</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.282588323187218</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.50183027785023</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.694038603899916</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>227</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.883642861274801</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.872293712771632</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0000355278326016556</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.000278020806876092</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0503446967671967</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0770480418216934</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.854234962140954</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.912054205418475</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>386</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.16121809822255</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.800322233800932</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00000970048518883339</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.000142867041100314</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0330211825346256</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.166504016138153</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.774599619617879</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.812038077151931</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>336</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.0338785853216</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.65750462285922</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.000000000151972866990008</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.00571836740484541</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0856518706904295</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.251125138893532</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.623178025723273</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.72382899569085</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>47</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.921571683811067</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0849430306025699</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.000000000144910552777462</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.000600101718541758</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.470531931179452</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.443924936354526</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0879472924632013</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.556375564187783</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.70837168526316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.641253216239584</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.000277660675676845</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.103735523831552</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.254733599253187</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.606045304497375</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.720568291539998</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>301</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.917420188592446</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.679947442782898</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.000371697844265106</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0660205327692917</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.253660326603545</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.645611954520187</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.719106983030284</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>249</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.915559665524316</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.543477840820629</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.00330746620883347</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.219790788691677</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.233423904278861</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.506242975709405</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.748090103737753</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>156</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.952460678762931</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.212554465702511</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.00634416950160653</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.400095867811113</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.381005496984769</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.192516282951403</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.60904766338329</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.775433263943271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.717675809553098</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.000381218845166238</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.128203492388182</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.153739479213554</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.685436792166547</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.826178029847927</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.05188142866254</v>
       </c>
     </row>
   </sheetData>
